--- a/csv_files/indian_food.xlsx
+++ b/csv_files/indian_food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/13_COM301/91902_Databases/Data_sets_3N/Indian_Food/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/peddih9242_masseyhigh_school_nz/Documents/2023_Schoolwork/COM301/Databases/L3_Indian_Food_2023/csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="111" documentId="8_{0C2E5BB8-A9ED-4EC4-9F32-AB07F844D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A60BAA-D858-4C11-AE08-3FEB8E057F43}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -2584,29 +2584,29 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>560</v>
       </c>
@@ -2620,16 +2620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection sqref="A1:M256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>155</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>157</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>159</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>176</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>178</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>192</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>211</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>216</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>227</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>232</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>234</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>238</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>240</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>244</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>246</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>252</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>254</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>268</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>272</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>274</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>278</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>282</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>284</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>286</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>288</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>290</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>294</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>302</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>304</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>310</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>312</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>314</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>316</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>318</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>320</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>322</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>324</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>326</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>328</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>330</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>334</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>336</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>338</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>340</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>342</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>344</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>346</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>348</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>350</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>352</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>354</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>356</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>358</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>360</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>362</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>364</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>366</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>368</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>370</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>372</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>374</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>376</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>378</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>380</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>382</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>384</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>386</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>388</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>390</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>392</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>394</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>396</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>398</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>400</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>412</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>414</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>416</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>418</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>420</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>422</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>424</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>427</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>429</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>431</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>433</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>436</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>438</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>440</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>442</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>444</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>445</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>447</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>449</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>451</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>453</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>455</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>457</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>461</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>463</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>465</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>467</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>470</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>472</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>474</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>476</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>478</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>480</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>482</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>484</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>486</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>488</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>490</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>492</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>494</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>496</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>498</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>500</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>502</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>504</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>506</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>508</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>510</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>512</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>514</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>516</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>518</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>520</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>522</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>524</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>526</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>528</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>530</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>532</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>534</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>536</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>538</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>540</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>542</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>544</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>546</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>548</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>550</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>552</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>554</v>
       </c>
@@ -14155,9 +14155,9 @@
       <selection activeCell="I16" sqref="A1:J256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>566</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20013,7 +20013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -21197,7 +21197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22362,9 +22362,9 @@
       <selection activeCell="A2" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>565</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22444,9 +22444,9 @@
       <selection activeCell="A2" sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>564</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22542,7 +22542,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -22670,9 +22670,9 @@
       <selection activeCell="A2" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>563</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22732,13 +22732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961E8A1B-08F6-4D76-95CC-E2003F177DA6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>562</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22754,7 +22754,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
